--- a/output/df_financial_data.xlsx
+++ b/output/df_financial_data.xlsx
@@ -441,497 +441,497 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-598523.0616438356</v>
+        <v>-862545.0616438356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-598546.1232876712</v>
+        <v>-862590.1232876712</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-598569.1849315069</v>
+        <v>-862635.1849315069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-598592.2465753425</v>
+        <v>-862680.2465753425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-598615.3082191781</v>
+        <v>-862725.3082191781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-598603.9178630137</v>
+        <v>-862718.2656130138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-598412.1205401827</v>
+        <v>-862629.6613068493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-598257.0566173516</v>
+        <v>-862509.3964340183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-598193.2778445205</v>
+        <v>-862500.8660778538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-598178.1297050228</v>
+        <v>-862433.8883216894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-598135.1926321917</v>
+        <v>-862254.7349488584</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-597908.3568260273</v>
+        <v>-862061.9325926939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-597916.1592698629</v>
+        <v>-862106.9942365296</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-597939.2209136985</v>
+        <v>-862152.0558803652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-597821.7025575342</v>
+        <v>-862060.2907242008</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-597722.9080347031</v>
+        <v>-861999.580034703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-597485.2020285387</v>
+        <v>-861936.8369118719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-597401.9376723743</v>
+        <v>-861950.6360057076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-597424.9993162099</v>
+        <v>-861903.7079495431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-597448.0609600456</v>
+        <v>-861948.7695933788</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-597471.1226038812</v>
+        <v>-861993.8312372144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-597494.1842477168</v>
+        <v>-862038.89288105</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-597517.2458915524</v>
+        <v>-862083.9545248856</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-597540.307535388</v>
+        <v>-862129.0161687213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-597563.3691792237</v>
+        <v>-862174.0778125569</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-597586.4308230593</v>
+        <v>-862219.1394563925</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-597609.4924668949</v>
+        <v>-862264.2011002281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-597632.5541107305</v>
+        <v>-862309.2627440637</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-597655.6157545662</v>
+        <v>-862354.3243878994</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-597678.6773984018</v>
+        <v>-862327.855231735</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-597398.4972755708</v>
+        <v>-862239.827508904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-597148.4723694064</v>
+        <v>-862110.5633527397</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-597171.534013242</v>
+        <v>-862117.4152132419</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-597194.5956570776</v>
+        <v>-862106.8989904108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-597110.9485009132</v>
+        <v>-862015.1690342465</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-596904.6359447489</v>
+        <v>-861884.6849780821</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-596837.9375885845</v>
+        <v>-861810.4846219177</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-596760.8255324201</v>
+        <v>-861855.5462657533</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-596703.6971762556</v>
+        <v>-861737.3941262556</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-596671.3824367579</v>
+        <v>-861747.4493700913</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-596593.3454639269</v>
+        <v>-861596.7289805936</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-596595.1815077625</v>
+        <v>-861563.6651410959</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-596529.8031515981</v>
+        <v>-861608.7267849315</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-596552.8647954337</v>
+        <v>-861653.7884287671</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-596575.9264392693</v>
+        <v>-861698.8500726027</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-596598.988083105</v>
+        <v>-861743.9117164384</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-596622.0497269406</v>
+        <v>-861788.973360274</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-596645.1113707762</v>
+        <v>-861834.0350041096</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-596668.1730146118</v>
+        <v>-861879.0966479452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-596691.2346584474</v>
+        <v>-861924.1582917809</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-596714.2963022831</v>
+        <v>-861969.2199356165</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-596737.3579461187</v>
+        <v>-862014.2815794521</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-596760.4195899543</v>
+        <v>-862059.3432232877</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-596734.8506004566</v>
+        <v>-862065.7948671234</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-596580.5746442922</v>
+        <v>-862013.5952442923</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-596403.7479547946</v>
+        <v>-861791.3083047946</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-596373.3406152969</v>
+        <v>-861745.5737486302</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-596396.4022591325</v>
+        <v>-861706.4853924658</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-596200.3704863014</v>
+        <v>-861398.0666196347</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-596058.579530137</v>
+        <v>-861258.6630301371</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-596031.8243739726</v>
+        <v>-861303.7246739727</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-596054.8860178082</v>
+        <v>-861348.7863178083</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-596077.9476616438</v>
+        <v>-861280.0771616439</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-595971.9991054795</v>
+        <v>-861055.5156054795</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-595898.1709159818</v>
+        <v>-860968.2138826484</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-595808.8477598174</v>
+        <v>-860937.2963264839</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-595831.909403653</v>
+        <v>-860982.3579703196</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-595812.7310474886</v>
+        <v>-861027.4196141552</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-595835.7926913243</v>
+        <v>-861072.4812579908</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-595858.8543351599</v>
+        <v>-861117.5429018264</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-595881.9159789955</v>
+        <v>-861162.6045456621</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-595904.9776228311</v>
+        <v>-861207.6661894977</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-595928.0392666667</v>
+        <v>-861252.7278333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-595951.1009105024</v>
+        <v>-861297.7894771689</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-595974.162554338</v>
+        <v>-861342.8511210046</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-595997.2241981736</v>
+        <v>-861387.9127648402</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-596020.2858420092</v>
+        <v>-861432.9744086758</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-595984.7394858449</v>
+        <v>-861478.0360525114</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-595818.9619296804</v>
+        <v>-861276.9220963471</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-595722.378773516</v>
+        <v>-861094.3682568494</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-595638.5204173516</v>
+        <v>-861139.429900685</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-595574.7416445205</v>
+        <v>-861161.3915445206</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-595414.2270383561</v>
+        <v>-860931.9701883562</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-595284.2632821917</v>
+        <v>-860800.9891155252</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-595211.2685260273</v>
+        <v>-860823.0563593608</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-595234.330169863</v>
+        <v>-860868.1180031964</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-595201.2654136986</v>
+        <v>-860749.2886303654</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-595016.8630242009</v>
+        <v>-860732.1093408677</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-594870.1466347032</v>
+        <v>-860586.8425680366</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-594893.2082785388</v>
+        <v>-860479.8128952056</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-594889.3419223744</v>
+        <v>-860524.8745390412</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-594912.4035662101</v>
+        <v>-860569.9361828768</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-594935.4652100457</v>
+        <v>-860614.9978267124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-594958.5268538813</v>
+        <v>-860660.0594705481</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-594981.5884977169</v>
+        <v>-860705.1211143837</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-595004.6501415526</v>
+        <v>-860750.1827582193</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-595027.7117853882</v>
+        <v>-860795.2444020549</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-595050.7734292238</v>
+        <v>-860840.3060458906</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-595073.8350730594</v>
+        <v>-860885.3676897262</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J2" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="3">
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J3" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J4" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="5">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J5" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="6">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J6" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="7">
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-34.45200000000001</v>
+        <v>-52.10425000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J7" t="n">
-        <v>-11.39035616438357</v>
+        <v>-7.042606164383569</v>
       </c>
     </row>
     <row r="8">
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1217,16 +1217,16 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-40.65600000000002</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-174.2029666666667</v>
+        <v>-133.66595</v>
       </c>
       <c r="I8" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J8" t="n">
-        <v>-191.7973228310503</v>
+        <v>-88.60430616438357</v>
       </c>
     </row>
     <row r="9">
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1249,16 +1249,16 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-144.3335666666667</v>
+        <v>-119.1265166666667</v>
       </c>
       <c r="H9" t="n">
-        <v>-33.792</v>
+        <v>-46.20000000000002</v>
       </c>
       <c r="I9" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J9" t="n">
-        <v>-155.0639228310502</v>
+        <v>-120.2648728310503</v>
       </c>
     </row>
     <row r="10">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-86.84041666666668</v>
+        <v>-53.59199999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J10" t="n">
-        <v>-63.77877283105025</v>
+        <v>-8.530356164383553</v>
       </c>
     </row>
     <row r="11">
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-38.20978333333334</v>
+        <v>-70.35600000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-41.68340000000002</v>
       </c>
       <c r="I11" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J11" t="n">
-        <v>-15.1481394977169</v>
+        <v>-66.97775616438361</v>
       </c>
     </row>
     <row r="12">
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-224.2150166666667</v>
       </c>
       <c r="H12" t="n">
-        <v>-65.99871666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J12" t="n">
-        <v>-42.93707283105024</v>
+        <v>-179.1533728310503</v>
       </c>
     </row>
     <row r="13">
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1377,16 +1377,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-127.6036666666667</v>
+        <v>-57.81600000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>-122.2937833333334</v>
+        <v>-180.048</v>
       </c>
       <c r="I13" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J13" t="n">
-        <v>-226.8358061643836</v>
+        <v>-192.8023561643836</v>
       </c>
     </row>
     <row r="14">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-15.25920000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J14" t="n">
-        <v>7.802443835616433</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1450,7 +1450,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J15" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="16">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-44.61600000000001</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-95.96400000000003</v>
+        <v>-136.8268000000001</v>
       </c>
       <c r="I16" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J16" t="n">
-        <v>-117.5183561643836</v>
+        <v>-91.76515616438364</v>
       </c>
     </row>
     <row r="17">
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1505,16 +1505,16 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-38.20978333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>-121.8561666666667</v>
+        <v>-67.56255000000002</v>
       </c>
       <c r="I17" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J17" t="n">
-        <v>-98.79452283105026</v>
+        <v>-60.71068949771693</v>
       </c>
     </row>
     <row r="18">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-260.7676500000001</v>
+        <v>-107.8047666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J18" t="n">
-        <v>-237.7060061643836</v>
+        <v>-62.74312283105024</v>
       </c>
     </row>
     <row r="19">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-106.326</v>
+        <v>-31.26255000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J19" t="n">
-        <v>-83.2643561643836</v>
+        <v>13.79909383561642</v>
       </c>
     </row>
     <row r="20">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-91.98970000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J20" t="n">
-        <v>23.06164383561644</v>
+        <v>-46.92805616438358</v>
       </c>
     </row>
     <row r="21">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J21" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="22">
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1674,7 +1674,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J22" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="23">
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J23" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="24">
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1738,7 +1738,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J24" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="25">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J25" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="26">
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -1802,7 +1802,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J26" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="27">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J27" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="28">
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J28" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="29">
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J29" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="30">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J30" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="31">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-71.53080000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J31" t="n">
-        <v>23.06164383561644</v>
+        <v>-26.46915616438358</v>
       </c>
     </row>
     <row r="32">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -1985,16 +1985,16 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-194.8365833333334</v>
+        <v>-85.68120000000005</v>
       </c>
       <c r="H32" t="n">
-        <v>-108.4051833333333</v>
+        <v>-47.40816666666666</v>
       </c>
       <c r="I32" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J32" t="n">
-        <v>-280.1801228310503</v>
+        <v>-88.02772283105027</v>
       </c>
     </row>
     <row r="33">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -2017,16 +2017,16 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-132.90255</v>
+        <v>-50.29200000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>-140.184</v>
+        <v>-124.0338</v>
       </c>
       <c r="I33" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J33" t="n">
-        <v>-250.0249061643837</v>
+        <v>-129.2641561643836</v>
       </c>
     </row>
     <row r="34">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-38.20978333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J34" t="n">
-        <v>23.06164383561644</v>
+        <v>6.85186050228309</v>
       </c>
     </row>
     <row r="35">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-55.57786666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J35" t="n">
-        <v>23.06164383561644</v>
+        <v>-10.51622283105024</v>
       </c>
     </row>
     <row r="36">
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -2113,16 +2113,16 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-17.42400000000001</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-89.28480000000005</v>
+        <v>-136.7916</v>
       </c>
       <c r="I36" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J36" t="n">
-        <v>-83.64715616438362</v>
+        <v>-91.72995616438361</v>
       </c>
     </row>
     <row r="37">
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -2145,16 +2145,16 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-87.84600000000006</v>
+        <v>-76.94170000000003</v>
       </c>
       <c r="H37" t="n">
-        <v>-141.5282</v>
+        <v>-98.60400000000003</v>
       </c>
       <c r="I37" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J37" t="n">
-        <v>-206.3125561643836</v>
+        <v>-130.4840561643836</v>
       </c>
     </row>
     <row r="38">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -2177,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-89.76000000000005</v>
+        <v>-119.262</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J38" t="n">
-        <v>-66.69835616438361</v>
+        <v>-74.20035616438358</v>
       </c>
     </row>
     <row r="39">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -2209,16 +2209,16 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-79.33200000000004</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-20.8417</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J39" t="n">
-        <v>-77.11205616438359</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="40">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-80.19000000000001</v>
+        <v>-163.2137833333334</v>
       </c>
       <c r="I40" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J40" t="n">
-        <v>-57.12835616438358</v>
+        <v>-118.152139497717</v>
       </c>
     </row>
     <row r="41">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-23.76</v>
       </c>
       <c r="H41" t="n">
-        <v>-55.37638333333335</v>
+        <v>-11.2464</v>
       </c>
       <c r="I41" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J41" t="n">
-        <v>-32.31473949771691</v>
+        <v>10.05524383561643</v>
       </c>
     </row>
     <row r="42">
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-101.0986166666667</v>
+        <v>-195.7820333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J42" t="n">
-        <v>-78.03697283105028</v>
+        <v>-150.720389497717</v>
       </c>
     </row>
     <row r="43">
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -2337,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>-21.2256</v>
+        <v>-78.12548333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J43" t="n">
-        <v>1.836043835616442</v>
+        <v>-33.06383949771691</v>
       </c>
     </row>
     <row r="44">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-88.44000000000001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J44" t="n">
-        <v>-65.37835616438358</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="45">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J45" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="46">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J46" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="47">
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J47" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="48">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -2506,7 +2506,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J48" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="49">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J49" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="50">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J50" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="51">
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -2602,7 +2602,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J51" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="52">
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J52" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="53">
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J53" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="54">
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -2698,7 +2698,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J54" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="55">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>-48.63063333333333</v>
+        <v>-38.61000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J55" t="n">
-        <v>-25.56898949771689</v>
+        <v>6.451643835616432</v>
       </c>
     </row>
     <row r="56">
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -2753,16 +2753,16 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-25.34400000000001</v>
+        <v>-97.26126666666669</v>
       </c>
       <c r="H56" t="n">
-        <v>-151.9936</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J56" t="n">
-        <v>-154.2759561643836</v>
+        <v>-52.19962283105025</v>
       </c>
     </row>
     <row r="57">
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -2785,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>-147.0883333333334</v>
+        <v>-94.03680000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>-52.80000000000003</v>
+        <v>-173.3117833333334</v>
       </c>
       <c r="I57" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J57" t="n">
-        <v>-176.8266894977169</v>
+        <v>-222.286939497717</v>
       </c>
     </row>
     <row r="58">
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>-53.46898333333334</v>
+        <v>-90.79620000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J58" t="n">
-        <v>-30.4073394977169</v>
+        <v>-45.73455616438359</v>
       </c>
     </row>
     <row r="59">
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -2849,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-84.15000000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J59" t="n">
-        <v>23.06164383561644</v>
+        <v>-39.0883561643836</v>
       </c>
     </row>
     <row r="60">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -2881,16 +2881,16 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-134.9170166666667</v>
+        <v>-287.5090166666668</v>
       </c>
       <c r="H60" t="n">
-        <v>-84.17640000000002</v>
+        <v>-65.97140000000002</v>
       </c>
       <c r="I60" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J60" t="n">
-        <v>-196.0317728310503</v>
+        <v>-308.4187728310503</v>
       </c>
     </row>
     <row r="61">
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -2913,16 +2913,16 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-57.44640000000002</v>
+        <v>-48.63063333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>-107.4062</v>
+        <v>-135.8346</v>
       </c>
       <c r="I61" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J61" t="n">
-        <v>-141.7909561643836</v>
+        <v>-139.4035894977169</v>
       </c>
     </row>
     <row r="62">
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>-49.8168</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J62" t="n">
-        <v>-26.75515616438356</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="63">
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J63" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="64">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>-113.7708</v>
       </c>
       <c r="I64" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J64" t="n">
-        <v>23.06164383561644</v>
+        <v>-68.70915616438359</v>
       </c>
     </row>
     <row r="65">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -3041,16 +3041,16 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>-74.25</v>
       </c>
       <c r="H65" t="n">
-        <v>-129.0102000000001</v>
+        <v>-195.3732000000001</v>
       </c>
       <c r="I65" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J65" t="n">
-        <v>-105.9485561643836</v>
+        <v>-224.5615561643836</v>
       </c>
     </row>
     <row r="66">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -3073,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-96.88983333333336</v>
+        <v>-132.3633666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J66" t="n">
-        <v>-73.82818949771692</v>
+        <v>-87.30172283105027</v>
       </c>
     </row>
     <row r="67">
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-112.3848000000001</v>
+        <v>-75.97920000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J67" t="n">
-        <v>-89.32315616438362</v>
+        <v>-30.91755616438358</v>
       </c>
     </row>
     <row r="68">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -3146,7 +3146,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J68" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="69">
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>-42.24</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J69" t="n">
-        <v>-19.17835616438357</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="70">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J70" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="71">
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -3242,7 +3242,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J71" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="72">
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J72" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="73">
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -3306,7 +3306,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J73" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="74">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -3338,7 +3338,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J74" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="75">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J75" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="76">
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -3402,7 +3402,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J76" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="77">
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J77" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="78">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -3466,7 +3466,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J78" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="79">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -3489,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-58.60800000000001</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J79" t="n">
-        <v>-35.54635616438357</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="80">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -3521,16 +3521,16 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>-76.95600000000003</v>
+        <v>-69.22263333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>-111.8832</v>
+        <v>-176.9529666666667</v>
       </c>
       <c r="I80" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J80" t="n">
-        <v>-165.7775561643836</v>
+        <v>-201.1139561643836</v>
       </c>
     </row>
     <row r="81">
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -3553,16 +3553,16 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-101.0592</v>
+        <v>-214.7454833333334</v>
       </c>
       <c r="H81" t="n">
-        <v>-18.58560000000001</v>
+        <v>-12.87</v>
       </c>
       <c r="I81" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J81" t="n">
-        <v>-96.5831561643836</v>
+        <v>-182.5538394977169</v>
       </c>
     </row>
     <row r="82">
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>-106.92</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J82" t="n">
-        <v>-83.85835616438357</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="83">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -3617,16 +3617,16 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-55.57786666666669</v>
+        <v>-23.10000000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>-31.26255000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J83" t="n">
-        <v>-63.77877283105026</v>
+        <v>21.96164383561643</v>
       </c>
     </row>
     <row r="84">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -3649,16 +3649,16 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>-61.60825</v>
+        <v>-107.7494</v>
       </c>
       <c r="H84" t="n">
-        <v>-121.968</v>
+        <v>-166.7336000000001</v>
       </c>
       <c r="I84" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J84" t="n">
-        <v>-160.5146061643836</v>
+        <v>-229.4213561643836</v>
       </c>
     </row>
     <row r="85">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -3681,16 +3681,16 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-66.10340000000001</v>
+        <v>-139.0752000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>-86.922</v>
+        <v>-36.96751666666667</v>
       </c>
       <c r="I85" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J85" t="n">
-        <v>-129.9637561643835</v>
+        <v>-130.9810728310503</v>
       </c>
     </row>
     <row r="86">
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>-96.0564</v>
+        <v>-22.99440000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3722,7 +3722,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J86" t="n">
-        <v>-72.99475616438356</v>
+        <v>22.06724383561643</v>
       </c>
     </row>
     <row r="87">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J87" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="88">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -3780,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-56.12640000000001</v>
+        <v>-163.8910166666667</v>
       </c>
       <c r="I88" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J88" t="n">
-        <v>-33.06475616438357</v>
+        <v>-118.8293728310503</v>
       </c>
     </row>
     <row r="89">
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -3809,16 +3809,16 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-61.24800000000002</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-146.2160333333334</v>
+        <v>-62.24093333333334</v>
       </c>
       <c r="I89" t="n">
         <v>8.561643835616438</v>
       </c>
       <c r="J89" t="n">
-        <v>-184.402389497717</v>
+        <v>-17.1792894977169</v>
       </c>
     </row>
     <row r="90">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-169.7780333333334</v>
+        <v>-190.3284166666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J90" t="n">
-        <v>-146.716389497717</v>
+        <v>-145.2667728310502</v>
       </c>
     </row>
     <row r="91">
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-152.0913166666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J91" t="n">
-        <v>23.06164383561644</v>
+        <v>-107.0296728310503</v>
       </c>
     </row>
     <row r="92">
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>-26.92800000000001</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3914,7 +3914,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J92" t="n">
-        <v>-3.86635616438357</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="93">
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J93" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="94">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J94" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="95">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J95" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="96">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -4042,7 +4042,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J96" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="97">
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -4074,7 +4074,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J97" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="98">
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -4106,7 +4106,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J98" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="99">
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J99" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
     <row r="100">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -4170,7 +4170,7 @@
         <v>8.561643835616438</v>
       </c>
       <c r="J100" t="n">
-        <v>23.06164383561644</v>
+        <v>45.06164383561644</v>
       </c>
     </row>
   </sheetData>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12000</v>
+        <v>276000</v>
       </c>
       <c r="D2" t="n">
         <v>65000</v>
@@ -4281,7 +4281,7 @@
         <v>10000</v>
       </c>
       <c r="K2" t="n">
-        <v>598500</v>
+        <v>862500</v>
       </c>
     </row>
     <row r="3">
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -7865,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>276000</v>
       </c>
       <c r="M2" t="n">
         <v>65000</v>
@@ -7894,7 +7894,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -8012,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-34.45200000000001</v>
+        <v>-52.10425000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -8204,10 +8204,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-40.65600000000002</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-174.2029666666667</v>
+        <v>-133.66595</v>
       </c>
       <c r="I8" t="n">
         <v>8.561643835616438</v>
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-144.3335666666667</v>
+        <v>-119.1265166666667</v>
       </c>
       <c r="H9" t="n">
-        <v>-33.792</v>
+        <v>-46.20000000000002</v>
       </c>
       <c r="I9" t="n">
         <v>8.561643835616438</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-86.84041666666668</v>
+        <v>-53.59199999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -8381,10 +8381,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-38.20978333333334</v>
+        <v>-70.35600000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-41.68340000000002</v>
       </c>
       <c r="I11" t="n">
         <v>8.561643835616438</v>
@@ -8425,7 +8425,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -8440,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-224.2150166666667</v>
       </c>
       <c r="H12" t="n">
-        <v>-65.99871666666668</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>8.561643835616438</v>
@@ -8484,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -8499,10 +8499,10 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-127.6036666666667</v>
+        <v>-57.81600000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>-122.2937833333334</v>
+        <v>-180.048</v>
       </c>
       <c r="I13" t="n">
         <v>8.561643835616438</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>-15.25920000000001</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -8676,10 +8676,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>-44.61600000000001</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-95.96400000000003</v>
+        <v>-136.8268000000001</v>
       </c>
       <c r="I16" t="n">
         <v>8.561643835616438</v>
@@ -8720,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -8735,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-38.20978333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>-121.8561666666667</v>
+        <v>-67.56255000000002</v>
       </c>
       <c r="I17" t="n">
         <v>8.561643835616438</v>
@@ -8779,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-260.7676500000001</v>
+        <v>-107.8047666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-106.326</v>
+        <v>-31.26255000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -8912,7 +8912,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-91.98970000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -9192,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -9310,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -9561,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-71.53080000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -9620,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-194.8365833333334</v>
+        <v>-85.68120000000005</v>
       </c>
       <c r="H32" t="n">
-        <v>-108.4051833333333</v>
+        <v>-47.40816666666666</v>
       </c>
       <c r="I32" t="n">
         <v>8.561643835616438</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -9679,10 +9679,10 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-132.90255</v>
+        <v>-50.29200000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>-140.184</v>
+        <v>-124.0338</v>
       </c>
       <c r="I33" t="n">
         <v>8.561643835616438</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -9738,7 +9738,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-38.20978333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -9797,7 +9797,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-55.57786666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -9856,10 +9856,10 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>-17.42400000000001</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-89.28480000000005</v>
+        <v>-136.7916</v>
       </c>
       <c r="I36" t="n">
         <v>8.561643835616438</v>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -9915,10 +9915,10 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-87.84600000000006</v>
+        <v>-76.94170000000003</v>
       </c>
       <c r="H37" t="n">
-        <v>-141.5282</v>
+        <v>-98.60400000000003</v>
       </c>
       <c r="I37" t="n">
         <v>8.561643835616438</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -9974,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>-89.76000000000005</v>
+        <v>-119.262</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -10018,7 +10018,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -10033,10 +10033,10 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-79.33200000000004</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-20.8417</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>8.561643835616438</v>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -10095,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-80.19000000000001</v>
+        <v>-163.2137833333334</v>
       </c>
       <c r="I40" t="n">
         <v>8.561643835616438</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -10151,10 +10151,10 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-23.76</v>
       </c>
       <c r="H41" t="n">
-        <v>-55.37638333333335</v>
+        <v>-11.2464</v>
       </c>
       <c r="I41" t="n">
         <v>8.561643835616438</v>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -10210,7 +10210,7 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-101.0986166666667</v>
+        <v>-195.7820333333334</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -10269,7 +10269,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>-21.2256</v>
+        <v>-78.12548333333335</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -10328,7 +10328,7 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-88.44000000000001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -10490,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>-48.63063333333333</v>
+        <v>-38.61000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -11036,10 +11036,10 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-25.34400000000001</v>
+        <v>-97.26126666666669</v>
       </c>
       <c r="H56" t="n">
-        <v>-151.9936</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>8.561643835616438</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -11095,10 +11095,10 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>-147.0883333333334</v>
+        <v>-94.03680000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>-52.80000000000003</v>
+        <v>-173.3117833333334</v>
       </c>
       <c r="I57" t="n">
         <v>8.561643835616438</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -11154,7 +11154,7 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>-53.46898333333334</v>
+        <v>-90.79620000000003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-84.15000000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -11272,10 +11272,10 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-134.9170166666667</v>
+        <v>-287.5090166666668</v>
       </c>
       <c r="H60" t="n">
-        <v>-84.17640000000002</v>
+        <v>-65.97140000000002</v>
       </c>
       <c r="I60" t="n">
         <v>8.561643835616438</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -11331,10 +11331,10 @@
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>-57.44640000000002</v>
+        <v>-48.63063333333334</v>
       </c>
       <c r="H61" t="n">
-        <v>-107.4062</v>
+        <v>-135.8346</v>
       </c>
       <c r="I61" t="n">
         <v>8.561643835616438</v>
@@ -11375,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>-49.8168</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -11434,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -11511,7 +11511,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>-113.7708</v>
       </c>
       <c r="I64" t="n">
         <v>8.561643835616438</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -11567,10 +11567,10 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>-74.25</v>
       </c>
       <c r="H65" t="n">
-        <v>-129.0102000000001</v>
+        <v>-195.3732000000001</v>
       </c>
       <c r="I65" t="n">
         <v>8.561643835616438</v>
@@ -11611,7 +11611,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -11626,7 +11626,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>-96.88983333333336</v>
+        <v>-132.3633666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -11670,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -11685,7 +11685,7 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-112.3848000000001</v>
+        <v>-75.97920000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -11788,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -11803,7 +11803,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>-42.24</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -12024,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -12142,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -12201,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -12319,7 +12319,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -12393,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-58.60800000000001</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -12452,10 +12452,10 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>-76.95600000000003</v>
+        <v>-69.22263333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>-111.8832</v>
+        <v>-176.9529666666667</v>
       </c>
       <c r="I80" t="n">
         <v>8.561643835616438</v>
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -12511,10 +12511,10 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-101.0592</v>
+        <v>-214.7454833333334</v>
       </c>
       <c r="H81" t="n">
-        <v>-18.58560000000001</v>
+        <v>-12.87</v>
       </c>
       <c r="I81" t="n">
         <v>8.561643835616438</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -12570,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>-106.92</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -12629,10 +12629,10 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-55.57786666666669</v>
+        <v>-23.10000000000001</v>
       </c>
       <c r="H83" t="n">
-        <v>-31.26255000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>8.561643835616438</v>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -12688,10 +12688,10 @@
         <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>-61.60825</v>
+        <v>-107.7494</v>
       </c>
       <c r="H84" t="n">
-        <v>-121.968</v>
+        <v>-166.7336000000001</v>
       </c>
       <c r="I84" t="n">
         <v>8.561643835616438</v>
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -12747,10 +12747,10 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-66.10340000000001</v>
+        <v>-139.0752000000001</v>
       </c>
       <c r="H85" t="n">
-        <v>-86.922</v>
+        <v>-36.96751666666667</v>
       </c>
       <c r="I85" t="n">
         <v>8.561643835616438</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -12806,7 +12806,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>-96.0564</v>
+        <v>-22.99440000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -12909,7 +12909,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -12927,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>-56.12640000000001</v>
+        <v>-163.8910166666667</v>
       </c>
       <c r="I88" t="n">
         <v>8.561643835616438</v>
@@ -12968,7 +12968,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -12983,10 +12983,10 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-61.24800000000002</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>-146.2160333333334</v>
+        <v>-62.24093333333334</v>
       </c>
       <c r="I89" t="n">
         <v>8.561643835616438</v>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -13042,7 +13042,7 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-169.7780333333334</v>
+        <v>-190.3284166666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -13101,7 +13101,7 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>-152.0913166666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -13145,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>-26.92800000000001</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -13204,7 +13204,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -13263,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -13322,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C95" t="n">
         <v>1</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -13440,7 +13440,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -13558,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>

--- a/output/df_financial_data.xlsx
+++ b/output/df_financial_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,62 +441,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-77002</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-77004</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>-77006</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>-77008</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>-77010</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-77012</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-77014</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-77016</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-77018</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>-77020</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>-77022</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>-77024</v>
+        <v>-4.5</v>
       </c>
     </row>
   </sheetData>
@@ -510,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,146 +515,6 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -719,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65000</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
-        <v>77000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -785,176 +595,6 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -969,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>65000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -1057,236 +697,6 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/df_financial_data.xlsx
+++ b/output/df_financial_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.5</v>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
@@ -460,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +520,20 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -529,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -595,6 +614,23 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -697,6 +733,29 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/df_financial_data.xlsx
+++ b/output/df_financial_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,497 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2</v>
+        <v>-200000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4</v>
+        <v>-200000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-6</v>
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-199911.5796166667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-199851.8761083333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-199851.8761083333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-199851.8761083333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-199745.0607916666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-199718.6607916667</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-199691.2047916666</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-199663.4158583333</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-199663.4158583333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-199645.1998583333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-199561.9892583333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-199537.6739416667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-199515.7949416667</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-199493.2164333333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-199474.1115416667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-199378.4559083333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-199378.4559083333</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-199368.9519083333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-199317.1201833333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-199301.4889083334</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-199265.2656333334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-199265.2656333334</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-199265.2656333334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-199244.4239333334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-199213.192275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-199149.22315</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-199130.1182583334</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-199094.7290583334</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-199061.3957583334</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-199013.1827583334</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-199013.1827583334</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-198975.2222166667</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-198924.6805166667</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-198862.1196666667</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-198862.1196666667</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-198862.1196666667</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-198862.1196666667</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-198849.4476666667</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-198841.5276666667</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-198783.6652833334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-198753.8893833334</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-198739.8445833334</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-198641.7112916667</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-198641.7112916667</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-198604.5862916667</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-198597.4582916667</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-198540.37755</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-198518.92755</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-198509.78985</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-198509.78985</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-198442.8786833334</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-198403.8198833334</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-198390.3558833334</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-198364.9458833334</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-198364.9458833334</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,15 +961,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>charging_station1_op_cost</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bat1_op_cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>total cost</t>
         </is>
@@ -500,13 +975,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +986,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -528,13 +997,1066 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-88.42038333333335</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-88.42038333333335</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-59.70350833333335</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-59.70350833333335</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-106.8153166666667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-106.8153166666667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-26.40000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-26.40000000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-27.456</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-27.456</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-27.78893333333334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-27.78893333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-18.216</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.216</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-83.21060000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-83.21060000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-24.31531666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-24.31531666666667</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-21.879</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-21.879</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-22.57850833333333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-22.57850833333333</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-19.10489166666667</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-95.65563333333336</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-95.65563333333336</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-9.504000000000005</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-9.504000000000005</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-51.83172500000002</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-51.83172500000002</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-15.63127500000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-15.63127500000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-36.22327500000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-36.22327500000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-20.84170000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-20.84170000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-31.23165833333334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-31.23165833333334</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-63.96912500000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-63.96912500000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-19.10489166666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-35.38920000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-35.38920000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-33.33330000000002</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-33.33330000000002</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-48.21300000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-48.21300000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-37.96054166666669</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-37.96054166666669</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-50.54170000000001</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-50.54170000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-62.56085000000002</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-62.56085000000002</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-12.672</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-12.672</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-7.920000000000003</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-7.920000000000003</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-57.86238333333335</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-57.86238333333335</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-29.77590000000001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-29.77590000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-14.04480000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-14.04480000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-98.13329166666666</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-98.13329166666666</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-37.12500000000001</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-37.12500000000001</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-7.128000000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-7.128000000000001</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-57.08074166666668</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-57.08074166666668</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-21.45</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-21.45</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-9.137700000000002</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-9.137700000000002</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-66.91116666666669</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-66.91116666666669</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-39.0588</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-39.0588</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-13.464</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-13.464</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-25.41000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-25.41000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +2070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,15 +2091,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
+          <t>charging_station1_inv_cost</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bat1_inv_cost</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total investment</t>
         </is>
@@ -591,13 +2108,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="3">
@@ -613,9 +2127,6 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -630,7 +2141,1348 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,7 +3497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,32 +3513,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>charging_station1_op_cost</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>bat1_op_cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>demand1_inv_cost</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>net1_inv_cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pv1_inv_cost</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bat1_inv_cost</t>
+          <t>charging_station1_inv_cost</t>
         </is>
       </c>
     </row>
@@ -695,22 +3537,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="3">
@@ -718,21 +3554,15 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -741,10 +3571,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -752,10 +3582,1636 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-88.42038333333335</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-59.70350833333335</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-106.8153166666667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-26.40000000000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-27.456</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-27.78893333333334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-18.216</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-83.21060000000001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-24.31531666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-21.879</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-22.57850833333333</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-95.65563333333336</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-9.504000000000005</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-51.83172500000002</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-15.63127500000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-36.22327500000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-20.84170000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-31.23165833333334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-63.96912500000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-19.10489166666667</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-35.38920000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-33.33330000000002</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-48.21300000000001</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-37.96054166666669</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-50.54170000000001</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-62.56085000000002</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-12.672</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-7.920000000000003</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-57.86238333333335</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-29.77590000000001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>-14.04480000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>-98.13329166666666</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-37.12500000000001</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-7.128000000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>-57.08074166666668</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>-21.45</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>-9.137700000000002</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-66.91116666666669</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>-39.0588</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>-13.464</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-25.41000000000001</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/df_financial_data.xlsx
+++ b/output/df_financial_data.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,472 +466,222 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-200000</v>
+        <v>-199987.8423416667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-199911.5796166667</v>
+        <v>-199951.7678416667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-199851.8761083333</v>
+        <v>-199934.3997583333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-199851.8761083333</v>
+        <v>-199877.6921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-199851.8761083333</v>
+        <v>-199832.1455916667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-199745.0607916666</v>
+        <v>-199781.6160833334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-199718.6607916667</v>
+        <v>-199753.9488833334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-199691.2047916666</v>
+        <v>-199753.9488833334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-199663.4158583333</v>
+        <v>-199720.1568833334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-199663.4158583333</v>
+        <v>-199720.1568833334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-199645.1998583333</v>
+        <v>-199694.1047583334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-199561.9892583333</v>
+        <v>-199616.8158250001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-199537.6739416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-199515.7949416667</v>
+        <v>-199519.5675750001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-199493.2164333333</v>
+        <v>-199488.943575</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-199474.1115416667</v>
+        <v>-199488.943575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-199378.4559083333</v>
+        <v>-199405.0891083334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-199378.4559083333</v>
+        <v>-199385.9491083334</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-199368.9519083333</v>
+        <v>-199325.2226</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-199317.1201833333</v>
+        <v>-199267.8799666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-199301.4889083334</v>
+        <v>-199242.6349666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-199265.2656333334</v>
+        <v>-199235.5069666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-199265.2656333334</v>
+        <v>-199235.5069666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-199265.2656333334</v>
+        <v>-199235.5069666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-199244.4239333334</v>
+        <v>-199235.5069666667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-199213.192275</v>
+        <v>-199186.4062666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-199149.22315</v>
+        <v>-199125.3218</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-199130.1182583334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-199130.1182583334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-199130.1182583334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-199130.1182583334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-199130.1182583334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-199130.1182583334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-199130.1182583334</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>-199130.1182583334</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>-199130.1182583334</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>-199130.1182583334</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>-199130.1182583334</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>-199094.7290583334</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>-199061.3957583334</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>-199013.1827583334</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>-199013.1827583334</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>-198975.2222166667</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>-198924.6805166667</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>-198862.1196666667</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>-198862.1196666667</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>-198862.1196666667</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>-198862.1196666667</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>-198849.4476666667</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>-198841.5276666667</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>-198783.6652833334</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>-198753.8893833334</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>-198739.8445833334</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>-198641.7112916667</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>-198641.7112916667</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>-198604.5862916667</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>-198597.4582916667</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>-198540.37755</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>-198518.92755</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>-198509.78985</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>-198509.78985</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>-198442.8786833334</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>-198403.8198833334</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>-198390.3558833334</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>-198364.9458833334</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>-198364.9458833334</v>
+        <v>-199104.4801</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-12.15765833333334</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-12.15765833333334</v>
       </c>
     </row>
     <row r="8">
@@ -1041,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-88.42038333333335</v>
+        <v>-36.07450000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-88.42038333333335</v>
+        <v>-36.07450000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1052,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-59.70350833333335</v>
+        <v>-17.36808333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>-59.70350833333335</v>
+        <v>-17.36808333333333</v>
       </c>
     </row>
     <row r="10">
@@ -1063,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-56.70765833333335</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-56.70765833333335</v>
       </c>
     </row>
     <row r="11">
@@ -1074,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-45.54650833333336</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-45.54650833333336</v>
       </c>
     </row>
     <row r="12">
@@ -1085,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-106.8153166666667</v>
+        <v>-50.52950833333335</v>
       </c>
       <c r="C12" t="n">
-        <v>-106.8153166666667</v>
+        <v>-50.52950833333335</v>
       </c>
     </row>
     <row r="13">
@@ -1096,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-26.40000000000001</v>
+        <v>-27.66720000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>-26.40000000000001</v>
+        <v>-27.66720000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1107,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-27.456</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-27.456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1118,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-27.78893333333334</v>
+        <v>-33.79200000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>-27.78893333333334</v>
+        <v>-33.79200000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1140,10 +890,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-18.216</v>
+        <v>-26.05212500000001</v>
       </c>
       <c r="C17" t="n">
-        <v>-18.216</v>
+        <v>-26.05212500000001</v>
       </c>
     </row>
     <row r="18">
@@ -1151,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-83.21060000000001</v>
+        <v>-77.28893333333336</v>
       </c>
       <c r="C18" t="n">
-        <v>-83.21060000000001</v>
+        <v>-77.28893333333336</v>
       </c>
     </row>
     <row r="19">
@@ -1162,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>-24.31531666666667</v>
+        <v>-97.24825000000003</v>
       </c>
       <c r="C19" t="n">
-        <v>-24.31531666666667</v>
+        <v>-97.24825000000003</v>
       </c>
     </row>
     <row r="20">
@@ -1283,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>-21.879</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-21.879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1294,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>-22.57850833333333</v>
+        <v>-30.62400000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>-22.57850833333333</v>
+        <v>-30.62400000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1305,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>-19.10489166666667</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-19.10489166666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1316,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>-95.65563333333336</v>
+        <v>-83.8544666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>-95.65563333333336</v>
+        <v>-83.8544666666667</v>
       </c>
     </row>
     <row r="34">
@@ -1327,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-19.14000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-19.14000000000001</v>
       </c>
     </row>
     <row r="35">
@@ -1338,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>-9.504000000000005</v>
+        <v>-60.72650833333335</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.504000000000005</v>
+        <v>-60.72650833333335</v>
       </c>
     </row>
     <row r="36">
@@ -1349,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>-51.83172500000002</v>
+        <v>-57.34263333333335</v>
       </c>
       <c r="C36" t="n">
-        <v>-51.83172500000002</v>
+        <v>-57.34263333333335</v>
       </c>
     </row>
     <row r="37">
@@ -1360,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>-15.63127500000001</v>
+        <v>-25.24500000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>-15.63127500000001</v>
+        <v>-25.24500000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1371,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>-36.22327500000001</v>
+        <v>-7.128000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>-36.22327500000001</v>
+        <v>-7.128000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1404,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>-20.84170000000001</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-20.84170000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1415,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>-31.23165833333334</v>
+        <v>-49.10070000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>-31.23165833333334</v>
+        <v>-49.10070000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1426,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>-63.96912500000001</v>
+        <v>-61.08446666666668</v>
       </c>
       <c r="C43" t="n">
-        <v>-63.96912500000001</v>
+        <v>-61.08446666666668</v>
       </c>
     </row>
     <row r="44">
@@ -1437,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>-19.10489166666667</v>
+        <v>-20.84170000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>-19.10489166666667</v>
+        <v>-20.84170000000001</v>
       </c>
     </row>
     <row r="45">
@@ -1506,556 +1256,6 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-35.38920000000001</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-35.38920000000001</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-33.33330000000002</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-33.33330000000002</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-48.21300000000001</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-48.21300000000001</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-37.96054166666669</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-37.96054166666669</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-50.54170000000001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-50.54170000000001</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-62.56085000000002</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-62.56085000000002</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-12.672</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-12.672</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-7.920000000000003</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-7.920000000000003</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-57.86238333333335</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-57.86238333333335</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-29.77590000000001</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-29.77590000000001</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-14.04480000000001</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-14.04480000000001</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-98.13329166666666</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-98.13329166666666</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-37.12500000000001</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-37.12500000000001</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-7.128000000000001</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-7.128000000000001</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-57.08074166666668</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-57.08074166666668</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-21.45</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-21.45</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-9.137700000000002</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-9.137700000000002</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-66.91116666666669</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-66.91116666666669</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-39.0588</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-39.0588</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-13.464</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-13.464</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-25.41000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-25.41000000000001</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2070,7 +1270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2786,706 +1986,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3497,7 +1997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3622,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-12.15765833333334</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -3639,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-88.42038333333335</v>
+        <v>-36.07450000000001</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -3656,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-59.70350833333335</v>
+        <v>-17.36808333333333</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3673,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-56.70765833333335</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3690,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-45.54650833333336</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -3707,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-106.8153166666667</v>
+        <v>-50.52950833333335</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -3724,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-26.40000000000001</v>
+        <v>-27.66720000000001</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -3741,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-27.456</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -3758,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>-27.78893333333334</v>
+        <v>-33.79200000000001</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -3792,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>-18.216</v>
+        <v>-26.05212500000001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -3809,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>-83.21060000000001</v>
+        <v>-77.28893333333336</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -3826,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>-24.31531666666667</v>
+        <v>-97.24825000000003</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -4013,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>-21.879</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -4030,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>-22.57850833333333</v>
+        <v>-30.62400000000001</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -4047,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>-19.10489166666667</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4064,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>-95.65563333333336</v>
+        <v>-83.8544666666667</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -4081,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-19.14000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -4098,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>-9.504000000000005</v>
+        <v>-60.72650833333335</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -4115,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>-51.83172500000002</v>
+        <v>-57.34263333333335</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -4132,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>-15.63127500000001</v>
+        <v>-25.24500000000001</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -4149,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>-36.22327500000001</v>
+        <v>-7.128000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -4200,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>-20.84170000000001</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -4217,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>-31.23165833333334</v>
+        <v>-49.10070000000001</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -4234,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>-63.96912500000001</v>
+        <v>-61.08446666666668</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -4251,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>-19.10489166666667</v>
+        <v>-20.84170000000001</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4362,856 +2862,6 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-35.38920000000001</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-33.33330000000002</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-48.21300000000001</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-37.96054166666669</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-50.54170000000001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-62.56085000000002</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>0</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-12.672</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-7.920000000000003</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-57.86238333333335</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-29.77590000000001</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>-14.04480000000001</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" t="n">
-        <v>-98.13329166666666</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>0</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-37.12500000000001</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-7.128000000000001</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>-57.08074166666668</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
-      </c>
-      <c r="B86" t="n">
-        <v>-21.45</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>-9.137700000000002</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-66.91116666666669</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-39.0588</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-13.464</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>0</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-25.41000000000001</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>0</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>0</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output/df_financial_data.xlsx
+++ b/output/df_financial_data.xlsx
@@ -441,247 +441,247 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-845050.1232876712</v>
+        <v>-489518.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-845100.2465753425</v>
+        <v>-489537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-845150.3698630137</v>
+        <v>-489555.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-845200.493150685</v>
+        <v>-489574</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-845250.6164383562</v>
+        <v>-489592.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-845300.7397260275</v>
+        <v>-489595.03515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-845210.8137636987</v>
+        <v>-489572.77355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-845137.5765430366</v>
+        <v>-489546.17025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-845187.6998307079</v>
+        <v>-489564.67025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-845193.0685183791</v>
+        <v>-489583.17025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-845117.285897717</v>
+        <v>-489515.051575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-845059.0961270549</v>
+        <v>-489513.17435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-845109.2194147261</v>
+        <v>-489531.67435</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-845159.3427023974</v>
+        <v>-489550.17435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-845143.4672734019</v>
+        <v>-489568.67435</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-845157.8845610732</v>
+        <v>-489505.1958416667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-845175.4269487443</v>
+        <v>-489477.105525</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-845182.6437280822</v>
+        <v>-489438.3856333334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-845169.6050157534</v>
+        <v>-489456.8856333334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-845219.7283034247</v>
+        <v>-489475.3856333334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-845269.8515910959</v>
+        <v>-489493.8856333334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-845319.9748787672</v>
+        <v>-489512.3856333334</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-845370.0981664384</v>
+        <v>-489530.8856333334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-845420.2214541096</v>
+        <v>-489549.3856333334</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-845470.3447417809</v>
+        <v>-489567.8856333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-845520.4680294521</v>
+        <v>-489586.3856333334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-845570.5913171234</v>
+        <v>-489604.8856333334</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-845620.7146047946</v>
+        <v>-489623.3856333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-845670.8378924659</v>
+        <v>-489641.8856333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-845701.9531801371</v>
+        <v>-489660.3856333334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-845596.2231511417</v>
+        <v>-489584.6519333334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-845578.0339638129</v>
+        <v>-489545.7319333334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-845612.5259764841</v>
+        <v>-489524.2853416667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-845662.6492641553</v>
+        <v>-489542.7853416667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-845633.6326851599</v>
+        <v>-489486.0783416667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-845549.6476394978</v>
+        <v>-489462.3383416667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-845599.770927169</v>
+        <v>-489480.8383416667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-845632.6682148402</v>
+        <v>-489499.3383416667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-845636.6971025114</v>
+        <v>-489517.8383416667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-845652.9731151826</v>
+        <v>-489498.8668416667</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-845688.4444028538</v>
+        <v>-489517.3668416667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-845632.3728655251</v>
+        <v>-489422.9730166668</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-845636.0048365296</v>
+        <v>-489432.7610166668</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-845686.1281242009</v>
+        <v>-489451.2610166668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-845736.2514118721</v>
+        <v>-489469.7610166668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-845786.3746995433</v>
+        <v>-489488.2610166668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-845836.4979872146</v>
+        <v>-489506.7610166668</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-845886.6212748858</v>
+        <v>-489525.2610166668</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-845936.7445625571</v>
+        <v>-489543.7610166668</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,17 +711,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>demand2_op_cost</t>
+          <t>pv1_op_cost</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>pv2_op_cost</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
+          <t>pv3_op_cost</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -741,50 +741,20 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>solar_th1_op_cost</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>solar_th2_op_cost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pvt1_op_cost</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pvt2_op_cost</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>charging_station1_op_cost</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>charging_station2_op_cost</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_cost</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump2_op_cost</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total cost</t>
         </is>
@@ -795,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -813,34 +783,16 @@
         <v>10.5</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -848,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -866,34 +818,16 @@
         <v>10.5</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P3" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
@@ -901,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -919,34 +853,16 @@
         <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P4" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="5">
@@ -954,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -972,34 +888,16 @@
         <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P5" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="6">
@@ -1007,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1025,34 +923,16 @@
         <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P6" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7">
@@ -1060,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1078,34 +958,16 @@
         <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>-15.96485</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>50.12328767123287</v>
+        <v>2.535149999999996</v>
       </c>
     </row>
     <row r="8">
@@ -1113,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1131,34 +993,16 @@
         <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>-40.76160000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-70.58489166666666</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-69.46435833333335</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P8" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>-89.92596232876714</v>
+        <v>-22.26160000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1166,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1184,34 +1028,16 @@
         <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>-45.10330000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-61.51199999999999</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-61.84850833333338</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P9" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>-73.2372206621005</v>
+        <v>-26.60330000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1219,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1237,34 +1063,16 @@
         <v>10.5</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="11">
@@ -1272,13 +1080,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -1290,34 +1098,16 @@
         <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>-7.629599999999999</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-37.12500000000001</v>
-      </c>
-      <c r="O11" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5.368687671232863</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12">
@@ -1325,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1343,34 +1133,16 @@
         <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>-86.61867500000004</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-98.44990833333335</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-27.45600000000001</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P12" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>-75.78262066210048</v>
+        <v>-68.11867500000004</v>
       </c>
     </row>
     <row r="13">
@@ -1378,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1396,34 +1168,16 @@
         <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>-20.377225</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>-33.4554</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-74.85765833333333</v>
-      </c>
-      <c r="O13" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P13" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>-58.18977066210047</v>
+        <v>-1.877225000000003</v>
       </c>
     </row>
     <row r="14">
@@ -1431,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1449,34 +1203,16 @@
         <v>10.5</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="15">
@@ -1484,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1502,34 +1238,16 @@
         <v>10.5</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16">
@@ -1537,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1555,34 +1273,16 @@
         <v>10.5</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-65.99871666666667</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-15.87542899543379</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17">
@@ -1590,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1608,34 +1308,16 @@
         <v>10.5</v>
       </c>
       <c r="H17" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>-81.97850833333337</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-35.706</v>
-      </c>
-      <c r="O17" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P17" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>14.41728767123287</v>
+        <v>-63.47850833333337</v>
       </c>
     </row>
     <row r="18">
@@ -1643,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1661,34 +1343,16 @@
         <v>10.5</v>
       </c>
       <c r="H18" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>-46.59031666666667</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-32.58090000000001</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>17.54238767123287</v>
+        <v>-28.09031666666667</v>
       </c>
     </row>
     <row r="19">
@@ -1696,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -1714,34 +1378,16 @@
         <v>10.5</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>-57.21989166666669</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-42.90650833333335</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P19" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7.216779337899528</v>
+        <v>-38.71989166666669</v>
       </c>
     </row>
     <row r="20">
@@ -1749,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1767,34 +1413,16 @@
         <v>10.5</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-63.16199999999999</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P20" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>-13.03871232876712</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21">
@@ -1802,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -1820,34 +1448,16 @@
         <v>10.5</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="22">
@@ -1855,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -1873,34 +1483,16 @@
         <v>10.5</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P22" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23">
@@ -1908,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1926,34 +1518,16 @@
         <v>10.5</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P23" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="24">
@@ -1961,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1979,34 +1553,16 @@
         <v>10.5</v>
       </c>
       <c r="H24" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P24" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="25">
@@ -2014,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -2032,34 +1588,16 @@
         <v>10.5</v>
       </c>
       <c r="H25" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P25" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="26">
@@ -2067,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -2085,34 +1623,16 @@
         <v>10.5</v>
       </c>
       <c r="H26" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P26" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -2120,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -2138,34 +1658,16 @@
         <v>10.5</v>
       </c>
       <c r="H27" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P27" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="28">
@@ -2173,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -2191,34 +1693,16 @@
         <v>10.5</v>
       </c>
       <c r="H28" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P28" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -2226,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -2244,34 +1728,16 @@
         <v>10.5</v>
       </c>
       <c r="H29" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P29" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="30">
@@ -2279,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -2297,34 +1763,16 @@
         <v>10.5</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P30" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="31">
@@ -2332,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -2350,34 +1798,16 @@
         <v>10.5</v>
       </c>
       <c r="H31" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>-19.00800000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P31" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>31.11528767123286</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="32">
@@ -2385,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -2403,34 +1833,16 @@
         <v>10.5</v>
       </c>
       <c r="H32" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>-94.23370000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-78.21000000000006</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-77.64331666666668</v>
-      </c>
-      <c r="O32" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P32" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>-105.7300289954339</v>
+        <v>-75.73370000000003</v>
       </c>
     </row>
     <row r="33">
@@ -2438,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -2456,34 +1868,16 @@
         <v>10.5</v>
       </c>
       <c r="H33" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>-57.42000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>-52.68120000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-15.63127500000001</v>
-      </c>
-      <c r="O33" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P33" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>-18.18918732876715</v>
+        <v>-38.92000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -2491,13 +1885,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -2509,34 +1903,16 @@
         <v>10.5</v>
       </c>
       <c r="H34" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>-39.94659166666668</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>-15.63127500000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P34" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>34.49201267123287</v>
+        <v>-21.44659166666668</v>
       </c>
     </row>
     <row r="35">
@@ -2544,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -2562,34 +1938,16 @@
         <v>10.5</v>
       </c>
       <c r="H35" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P35" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="36">
@@ -2597,13 +1955,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -2615,34 +1973,16 @@
         <v>10.5</v>
       </c>
       <c r="H36" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>-75.20699999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>-48.65859166666667</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-30.48127500000001</v>
-      </c>
-      <c r="O36" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P36" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>-29.0165789954338</v>
+        <v>-56.70699999999999</v>
       </c>
     </row>
     <row r="37">
@@ -2650,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -2668,34 +2008,16 @@
         <v>10.5</v>
       </c>
       <c r="H37" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>-42.24000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>-66.71939999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-67.38893333333334</v>
-      </c>
-      <c r="O37" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P37" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-83.98504566210046</v>
+        <v>-23.74000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -2703,13 +2025,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -2721,34 +2043,16 @@
         <v>10.5</v>
       </c>
       <c r="H38" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P38" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="39">
@@ -2756,13 +2060,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -2774,34 +2078,16 @@
         <v>10.5</v>
       </c>
       <c r="H39" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-17.22600000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P39" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>32.89728767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="40">
@@ -2809,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -2827,34 +2113,16 @@
         <v>10.5</v>
       </c>
       <c r="H40" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-46.09440000000001</v>
-      </c>
-      <c r="O40" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P40" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4.028887671232869</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="41">
@@ -2862,13 +2130,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -2880,34 +2148,16 @@
         <v>10.5</v>
       </c>
       <c r="H41" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>-37.47150000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-33.84727500000001</v>
-      </c>
-      <c r="O41" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P41" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>16.27601267123287</v>
+        <v>-18.97150000000001</v>
       </c>
     </row>
     <row r="42">
@@ -2915,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -2933,34 +2183,16 @@
         <v>10.5</v>
       </c>
       <c r="H42" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>-14.652</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P42" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>35.47128767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="43">
@@ -2968,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -2986,34 +2218,16 @@
         <v>10.5</v>
       </c>
       <c r="H43" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>-112.893825</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>-106.1948250000001</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P43" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>-56.07153732876718</v>
+        <v>-94.39382499999999</v>
       </c>
     </row>
     <row r="44">
@@ -3021,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -3039,34 +2253,16 @@
         <v>10.5</v>
       </c>
       <c r="H44" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>-8.712000000000005</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>-46.49131666666667</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P44" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3.631971004566207</v>
+        <v>9.787999999999995</v>
       </c>
     </row>
     <row r="45">
@@ -3074,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -3092,34 +2288,16 @@
         <v>10.5</v>
       </c>
       <c r="H45" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P45" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="46">
@@ -3127,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -3145,34 +2323,16 @@
         <v>10.5</v>
       </c>
       <c r="H46" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P46" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="47">
@@ -3180,13 +2340,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -3198,34 +2358,16 @@
         <v>10.5</v>
       </c>
       <c r="H47" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P47" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="48">
@@ -3233,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -3251,34 +2393,16 @@
         <v>10.5</v>
       </c>
       <c r="H48" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P48" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="49">
@@ -3286,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -3304,34 +2428,16 @@
         <v>10.5</v>
       </c>
       <c r="H49" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P49" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="50">
@@ -3339,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -3357,34 +2463,16 @@
         <v>10.5</v>
       </c>
       <c r="H50" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="P50" t="n">
-        <v>8.561643835616438</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>50.12328767123287</v>
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
@@ -3398,7 +2486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,90 +2502,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>demand2_inv_cost</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>net1_inv_cost</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>net2_inv_cost</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>pv1_inv_cost</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>pv2_inv_cost</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>pv3_inv_cost</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>bat1_inv_cost</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>bat2_inv_cost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CHP1_inv_cost</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CHP2_inv_cost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>solar_th1_inv_cost</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>solar_th2_inv_cost</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pvt1_inv_cost</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>pvt2_inv_cost</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>charging_station1_inv_cost</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_cost</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_cost</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump2_inv_cost</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total investment</t>
         </is>
@@ -3511,55 +2564,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="E2" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="F2" t="n">
-        <v>48000</v>
+        <v>65000</v>
       </c>
       <c r="G2" t="n">
         <v>65000</v>
       </c>
       <c r="H2" t="n">
-        <v>65000</v>
+        <v>34000</v>
       </c>
       <c r="I2" t="n">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="J2" t="n">
-        <v>34000</v>
+        <v>42500</v>
       </c>
       <c r="K2" t="n">
-        <v>35000</v>
+        <v>200000</v>
       </c>
       <c r="L2" t="n">
-        <v>35000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>42500</v>
-      </c>
-      <c r="N2" t="n">
-        <v>42500</v>
-      </c>
-      <c r="O2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>845000</v>
+        <v>489500</v>
       </c>
     </row>
     <row r="3">
@@ -3599,27 +2631,6 @@
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3658,27 +2669,6 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3717,27 +2707,6 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -3776,27 +2745,6 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -3835,27 +2783,6 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -3894,27 +2821,6 @@
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -3953,27 +2859,6 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -4012,27 +2897,6 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4071,27 +2935,6 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4130,27 +2973,6 @@
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4189,27 +3011,6 @@
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -4248,27 +3049,6 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -4307,27 +3087,6 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -4366,27 +3125,6 @@
       <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4425,27 +3163,6 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4484,27 +3201,6 @@
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4543,27 +3239,6 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4602,27 +3277,6 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -4661,27 +3315,6 @@
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -4720,27 +3353,6 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4779,27 +3391,6 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4838,27 +3429,6 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4897,27 +3467,6 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4956,27 +3505,6 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -5015,27 +3543,6 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5074,27 +3581,6 @@
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -5133,27 +3619,6 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5192,27 +3657,6 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -5251,27 +3695,6 @@
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5310,27 +3733,6 @@
       <c r="L32" t="n">
         <v>0</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5369,27 +3771,6 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5428,27 +3809,6 @@
       <c r="L34" t="n">
         <v>0</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5487,27 +3847,6 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5546,27 +3885,6 @@
       <c r="L36" t="n">
         <v>0</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5605,27 +3923,6 @@
       <c r="L37" t="n">
         <v>0</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5664,27 +3961,6 @@
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -5723,27 +3999,6 @@
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5782,27 +4037,6 @@
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -5841,27 +4075,6 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -5900,27 +4113,6 @@
       <c r="L42" t="n">
         <v>0</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5959,27 +4151,6 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6018,27 +4189,6 @@
       <c r="L44" t="n">
         <v>0</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6077,27 +4227,6 @@
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -6136,27 +4265,6 @@
       <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -6195,27 +4303,6 @@
       <c r="L47" t="n">
         <v>0</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -6254,27 +4341,6 @@
       <c r="L48" t="n">
         <v>0</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6313,27 +4379,6 @@
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="n">
-        <v>0</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6370,27 +4415,6 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6405,7 +4429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6421,17 +4445,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>demand2_op_cost</t>
+          <t>pv1_op_cost</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pv1_op_cost</t>
+          <t>pv2_op_cost</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pv2_op_cost</t>
+          <t>pv3_op_cost</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -6451,152 +4475,87 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CHP2_op_cost</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>solar_th1_op_cost</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>solar_th2_op_cost</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pvt1_op_cost</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>pvt2_op_cost</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>charging_station1_op_cost</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>charging_station2_op_cost</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump1_op_cost</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump2_op_cost</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>demand1_inv_cost</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>demand2_inv_cost</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>net1_inv_cost</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>net2_inv_cost</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>pv1_inv_cost</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pv2_inv_cost</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>pv3_inv_cost</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>bat1_inv_cost</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>bat2_inv_cost</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>CHP1_inv_cost</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>CHP2_inv_cost</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>solar_th1_inv_cost</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>solar_th2_inv_cost</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>pvt1_inv_cost</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>pvt2_inv_cost</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>charging_station1_inv_cost</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>charging_station2_inv_cost</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump1_inv_cost</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>heat_pump2_inv_cost</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -6608,85 +4567,46 @@
         <v>10.5</v>
       </c>
       <c r="H2" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="O2" t="n">
-        <v>8.561643835616438</v>
+        <v>12000</v>
       </c>
       <c r="P2" t="n">
-        <v>8.561643835616438</v>
+        <v>65000</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34000</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>42500</v>
       </c>
       <c r="U2" t="n">
-        <v>24000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>48000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>65000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>65000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>34000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>34000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>35000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>42500</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>42500</v>
-      </c>
-      <c r="AE2" t="n">
         <v>200000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>200000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10000</v>
       </c>
     </row>
     <row r="3">
@@ -6694,13 +4614,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -6712,19 +4632,19 @@
         <v>10.5</v>
       </c>
       <c r="H3" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -6733,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -6751,45 +4671,6 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6798,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -6816,19 +4697,19 @@
         <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -6837,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -6855,45 +4736,6 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6902,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -6920,19 +4762,19 @@
         <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -6941,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -6959,45 +4801,6 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7006,13 +4809,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -7024,19 +4827,19 @@
         <v>10.5</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -7045,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -7063,45 +4866,6 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7110,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -7128,19 +4892,19 @@
         <v>10.5</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>-15.96485</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -7149,10 +4913,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -7167,45 +4931,6 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7214,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -7232,31 +4957,31 @@
         <v>10.5</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>-40.76160000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-70.58489166666666</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-69.46435833333335</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -7271,45 +4996,6 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7318,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -7336,31 +5022,31 @@
         <v>10.5</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>-45.10330000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-61.51199999999999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-61.84850833333338</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -7375,45 +5061,6 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7422,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -7440,19 +5087,19 @@
         <v>10.5</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -7461,10 +5108,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -7479,45 +5126,6 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7526,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -7544,31 +5152,31 @@
         <v>10.5</v>
       </c>
       <c r="H11" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-7.629599999999999</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-37.12500000000001</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -7583,45 +5191,6 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7630,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -7648,31 +5217,31 @@
         <v>10.5</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>-86.61867500000004</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-98.44990833333335</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-27.45600000000001</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -7687,45 +5256,6 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7734,13 +5264,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -7752,31 +5282,31 @@
         <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>-20.377225</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-33.4554</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-74.85765833333333</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -7791,45 +5321,6 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7838,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -7856,19 +5347,19 @@
         <v>10.5</v>
       </c>
       <c r="H14" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -7877,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -7895,45 +5386,6 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7942,13 +5394,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -7960,19 +5412,19 @@
         <v>10.5</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -7981,10 +5433,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -7999,45 +5451,6 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8046,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -8064,31 +5477,31 @@
         <v>10.5</v>
       </c>
       <c r="H16" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-65.99871666666667</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -8103,45 +5516,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8150,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -8168,31 +5542,31 @@
         <v>10.5</v>
       </c>
       <c r="H17" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>-81.97850833333337</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-35.706</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -8207,45 +5581,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8254,13 +5589,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -8272,31 +5607,31 @@
         <v>10.5</v>
       </c>
       <c r="H18" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>-46.59031666666667</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-32.58090000000001</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -8311,45 +5646,6 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8358,13 +5654,13 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -8376,31 +5672,31 @@
         <v>10.5</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>-57.21989166666669</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-42.90650833333335</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -8415,45 +5711,6 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8462,13 +5719,13 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -8480,31 +5737,31 @@
         <v>10.5</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-63.16199999999999</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -8519,45 +5776,6 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8566,13 +5784,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -8584,19 +5802,19 @@
         <v>10.5</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -8605,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -8623,45 +5841,6 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8670,13 +5849,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -8688,19 +5867,19 @@
         <v>10.5</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -8709,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -8727,45 +5906,6 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8774,13 +5914,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -8792,19 +5932,19 @@
         <v>10.5</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -8813,10 +5953,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -8831,45 +5971,6 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8878,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -8896,19 +5997,19 @@
         <v>10.5</v>
       </c>
       <c r="H24" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -8917,10 +6018,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8935,45 +6036,6 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8982,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -9000,19 +6062,19 @@
         <v>10.5</v>
       </c>
       <c r="H25" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9021,10 +6083,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9039,45 +6101,6 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9086,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -9104,19 +6127,19 @@
         <v>10.5</v>
       </c>
       <c r="H26" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9125,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9143,45 +6166,6 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9190,13 +6174,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -9208,19 +6192,19 @@
         <v>10.5</v>
       </c>
       <c r="H27" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9229,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -9247,45 +6231,6 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9294,13 +6239,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -9312,19 +6257,19 @@
         <v>10.5</v>
       </c>
       <c r="H28" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -9333,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -9351,45 +6296,6 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9398,13 +6304,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -9416,19 +6322,19 @@
         <v>10.5</v>
       </c>
       <c r="H29" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -9437,10 +6343,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -9455,45 +6361,6 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9502,13 +6369,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -9520,19 +6387,19 @@
         <v>10.5</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -9541,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -9559,45 +6426,6 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9606,13 +6434,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -9624,31 +6452,31 @@
         <v>10.5</v>
       </c>
       <c r="H31" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-19.00800000000001</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -9663,45 +6491,6 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9710,13 +6499,13 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -9728,31 +6517,31 @@
         <v>10.5</v>
       </c>
       <c r="H32" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>-94.23370000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-78.21000000000006</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-77.64331666666668</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -9767,45 +6556,6 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9814,13 +6564,13 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -9832,31 +6582,31 @@
         <v>10.5</v>
       </c>
       <c r="H33" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>-57.42000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-52.68120000000001</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-15.63127500000001</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -9871,45 +6621,6 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9918,13 +6629,13 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -9936,31 +6647,31 @@
         <v>10.5</v>
       </c>
       <c r="H34" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>-39.94659166666668</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-15.63127500000001</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -9975,45 +6686,6 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10022,13 +6694,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -10040,19 +6712,19 @@
         <v>10.5</v>
       </c>
       <c r="H35" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10061,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10079,45 +6751,6 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10126,13 +6759,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -10144,31 +6777,31 @@
         <v>10.5</v>
       </c>
       <c r="H36" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>-75.20699999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>-48.65859166666667</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-30.48127500000001</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10183,45 +6816,6 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10230,13 +6824,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -10248,31 +6842,31 @@
         <v>10.5</v>
       </c>
       <c r="H37" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>-42.24000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-66.71939999999999</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-67.38893333333334</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10287,45 +6881,6 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10334,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -10352,19 +6907,19 @@
         <v>10.5</v>
       </c>
       <c r="H38" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10373,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10391,45 +6946,6 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10438,13 +6954,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -10456,31 +6972,31 @@
         <v>10.5</v>
       </c>
       <c r="H39" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>-17.22600000000001</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10495,45 +7011,6 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10542,13 +7019,13 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -10560,31 +7037,31 @@
         <v>10.5</v>
       </c>
       <c r="H40" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-46.09440000000001</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -10599,45 +7076,6 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10646,13 +7084,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -10664,31 +7102,31 @@
         <v>10.5</v>
       </c>
       <c r="H41" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>-37.47150000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-33.84727500000001</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -10703,45 +7141,6 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10750,13 +7149,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -10768,31 +7167,31 @@
         <v>10.5</v>
       </c>
       <c r="H42" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>-14.652</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -10807,45 +7206,6 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10854,13 +7214,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -10872,31 +7232,31 @@
         <v>10.5</v>
       </c>
       <c r="H43" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>-112.893825</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-106.1948250000001</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -10911,45 +7271,6 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10958,13 +7279,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -10976,31 +7297,31 @@
         <v>10.5</v>
       </c>
       <c r="H44" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>-8.712000000000005</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-46.49131666666667</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11015,45 +7336,6 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11062,13 +7344,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -11080,19 +7362,19 @@
         <v>10.5</v>
       </c>
       <c r="H45" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11101,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11119,45 +7401,6 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11166,13 +7409,13 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -11184,19 +7427,19 @@
         <v>10.5</v>
       </c>
       <c r="H46" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11205,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -11223,45 +7466,6 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11270,13 +7474,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -11288,19 +7492,19 @@
         <v>10.5</v>
       </c>
       <c r="H47" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -11309,10 +7513,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -11327,45 +7531,6 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11374,13 +7539,13 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -11392,19 +7557,19 @@
         <v>10.5</v>
       </c>
       <c r="H48" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -11413,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -11431,45 +7596,6 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11478,13 +7604,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -11496,19 +7622,19 @@
         <v>10.5</v>
       </c>
       <c r="H49" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -11517,10 +7643,10 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -11535,45 +7661,6 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11582,13 +7669,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -11600,19 +7687,19 @@
         <v>10.5</v>
       </c>
       <c r="H50" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -11621,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>8.561643835616438</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -11639,45 +7726,6 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH50" t="n">
         <v>0</v>
       </c>
     </row>
